--- a/biology/Médecine/Prurit_aquagénique/Prurit_aquagénique.xlsx
+++ b/biology/Médecine/Prurit_aquagénique/Prurit_aquagénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prurit_aquag%C3%A9nique</t>
+          <t>Prurit_aquagénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prurit aquagénique est une forme de prurit défini par des démangeaisons importantes après un contact avec l'eau. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prurit_aquag%C3%A9nique</t>
+          <t>Prurit_aquagénique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent les causes de cette affection restent inconnues et les traitements proposés ne sont pas toujours efficaces. 
-Une cause documentée est une réaction au traitement par l'hydroxychloroquine qui, chez certains patients traités pour un lupus avec ce médicament, cause un prurit aquagénique généralisé de très forte intensité, survenant dans les quelques minutes suivant le contact de l’eau, perdurant 10 minutes environ avant de progressivement disparaître après plusieurs heures. Selon J.Jiménez‐Alonso ce prurit, parfois associé à une urticaire aquagénique[1]. Ce prurit apparait 1 à 3 semaines après le début du traitement.
+Une cause documentée est une réaction au traitement par l'hydroxychloroquine qui, chez certains patients traités pour un lupus avec ce médicament, cause un prurit aquagénique généralisé de très forte intensité, survenant dans les quelques minutes suivant le contact de l’eau, perdurant 10 minutes environ avant de progressivement disparaître après plusieurs heures. Selon J.Jiménez‐Alonso ce prurit, parfois associé à une urticaire aquagénique. Ce prurit apparait 1 à 3 semaines après le début du traitement.
 On retrouve aussi un prurit à l'eau dans la maladie de Vaquez (syndrome myéloprolifératif).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prurit_aquag%C3%A9nique</t>
+          <t>Prurit_aquagénique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Apparition de sensations de brûlure, de picotement, de piqûres, de démangeaisons, quelques minutes après un contact avec de l'eau, qu'elle soit chaude ou froide : sueur, pluie, douche, bain , etc.
 Ces symptômes cutanés sont diffus mais ne touchent habituellement pas la tête, les paumes ni la plante des pieds.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prurit_aquag%C3%A9nique</t>
+          <t>Prurit_aquagénique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le diagnostic peut être évoqué lors de la présence des six critères diagnostiques suivants (Steinman et Greaves[2] J Am Acad Dermatol. 1985 Jul;13(1):91-6.) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le diagnostic peut être évoqué lors de la présence des six critères diagnostiques suivants (Steinman et Greaves J Am Acad Dermatol. 1985 Jul;13(1):91-6.) :
 démangeaisons, picotements, piqûres, brûlures, intenses ;
 survenant quelques minutes après un contact avec de l'eau ;
 sans lésion cutanée visible ; sans efficacité des topiques hydratants ;
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prurit_aquag%C3%A9nique</t>
+          <t>Prurit_aquagénique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>urticaire de contact à l'eau
 urticaire aquagénique
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prurit_aquag%C3%A9nique</t>
+          <t>Prurit_aquagénique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,14 +667,16 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'efficacité des traitements proposés est inconstante.
-Les trois traitements principaux sont[3] :
+Les trois traitements principaux sont :
 alcalinisation de l'eau du bain, avec du bicarbonate de soude ;
 antihistaminique ;
 photothérapie UVB ou UVA.
-Des améliorations auraient été rapportées avec[3] :
+Des améliorations auraient été rapportées avec :
 propranolol (bêta-bloquant) ;
 capsaïcine en topique ;
 clonidine (anti-hypertenseur) ;
